--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,45 +471,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Merdjani</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hamzi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21-10-1969</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Skopje</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Diallo</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Mamadou Oury</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>01.01.1988</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Conakry</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gelsenkirchen</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Merdjani</t>
+          <t>Refaaeeh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hamzi</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21-10-1969</t>
+          <t>25-01-1977</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,45 +518,92 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Merdjani</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hamzi</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>21-10-1969</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Skopje</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Diallo</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Mamadou Oury</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>01.01.1988</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Conakry</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gelsenkirchen</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Refaaeeh</t>
+          <t>Khalil</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Amira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25-01-1977</t>
+          <t>27-08-1980</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Qanat Alsuez</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Merdjani</t>
+          <t>Refaaeeh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hamzi</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21-10-1969</t>
+          <t>25-01-1977</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,45 +565,92 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Merdjani</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hamzi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21-10-1969</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Skopje</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Diallo</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Mamadou Oury</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>01.01.1988</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Conakry</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gelsenkirchen</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Khalil</t>
+          <t>Mohamad</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amira</t>
+          <t>Zinab</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>27-08-1980</t>
+          <t>15.02.1983</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Qanat Alsuez</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Schwerte</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Refaaeeh</t>
+          <t>Khalil</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Amira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>25-01-1977</t>
+          <t>27-08-1980</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Qanat Alsuez</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Merdjani</t>
+          <t>Refaaeeh</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hamzi</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21-10-1969</t>
+          <t>25-01-1977</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,45 +612,92 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Merdjani</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hamzi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21-10-1969</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Skopje</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Diallo</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Mamadou Oury</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>01.01.1988</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Conakry</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gelsenkirchen</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Mitreski</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zinab</t>
+          <t>Slavko</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15.02.1983</t>
+          <t>20.07.1988</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Bitola</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schwerte</t>
+          <t>Hamm</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Khalil</t>
+          <t>Mohamad</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amira</t>
+          <t>Zinab</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>27-08-1980</t>
+          <t>15.02.1983</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Qanat Alsuez</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Schwerte</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Refaaeeh</t>
+          <t>Khalil</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Amira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>25-01-1977</t>
+          <t>27-08-1980</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Qanat Alsuez</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Merdjani</t>
+          <t>Refaaeeh</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hamzi</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21-10-1969</t>
+          <t>25-01-1977</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,45 +659,92 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Merdjani</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hamzi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21-10-1969</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Skopje</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Diallo</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Mamadou Oury</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>01.01.1988</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Conakry</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gelsenkirchen</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mitreski</t>
+          <t>Chahin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Slavko</t>
+          <t>Manal Jaber</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20.07.1988</t>
+          <t>270189</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bitola</t>
+          <t>Varde</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hamm</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Mitreski</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zinab</t>
+          <t>Slavko</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15.02.1983</t>
+          <t>20.07.1988</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Bitola</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schwerte</t>
+          <t>Hamm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Khalil</t>
+          <t>Mohamad</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amira</t>
+          <t>Zinab</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>27-08-1980</t>
+          <t>15.02.1983</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Qanat Alsuez</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Schwerte</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Refaaeeh</t>
+          <t>Khalil</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Amira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>25-01-1977</t>
+          <t>27-08-1980</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Qanat Alsuez</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Merdjani</t>
+          <t>Refaaeeh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hamzi</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21-10-1969</t>
+          <t>25-01-1977</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,45 +706,92 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Merdjani</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hamzi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21-10-1969</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Skopje</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Diallo</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Mamadou Oury</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>01.01.1988</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Conakry</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Gelsenkirchen</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chahin</t>
+          <t>Aruna</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manal Jaber</t>
+          <t>Jimoh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>270189</t>
+          <t>24.03.1980</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Varde</t>
+          <t>Kaduna</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mitreski</t>
+          <t>Chahin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Slavko</t>
+          <t>Manal Jaber</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20.07.1988</t>
+          <t>270189</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bitola</t>
+          <t>Varde</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hamm</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Mitreski</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zinab</t>
+          <t>Slavko</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15.02.1983</t>
+          <t>20.07.1988</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Bitola</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,17 +590,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schwerte</t>
+          <t>Hamm</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Khalil</t>
+          <t>Mohamad</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amira</t>
+          <t>Zinab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>27-08-1980</t>
+          <t>15.02.1983</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Qanat Alsuez</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Schwerte</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Refaaeeh</t>
+          <t>Khalil</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Amira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25-01-1977</t>
+          <t>27-08-1980</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Qanat Alsuez</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Merdjani</t>
+          <t>Refaaeeh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hamzi</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21-10-1969</t>
+          <t>25-01-1977</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,45 +753,92 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Merdjani</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hamzi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21-10-1969</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Skopje</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Diallo</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Mamadou Oury</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>01.01.1988</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Conakry</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Gelsenkirchen</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aruna</t>
+          <t>Ebrahim</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jimoh</t>
+          <t>Taher Sabry Elsayed Gomaa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24.03.1980</t>
+          <t>31.08.1985</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kaduna</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chahin</t>
+          <t>Aruna</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manal Jaber</t>
+          <t>Jimoh</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>270189</t>
+          <t>24.03.1980</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Varde</t>
+          <t>Kaduna</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mitreski</t>
+          <t>Chahin</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Slavko</t>
+          <t>Manal Jaber</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20.07.1988</t>
+          <t>270189</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bitola</t>
+          <t>Varde</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,17 +590,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hamm</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Mitreski</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zinab</t>
+          <t>Slavko</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15.02.1983</t>
+          <t>20.07.1988</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Bitola</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,17 +637,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schwerte</t>
+          <t>Hamm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Khalil</t>
+          <t>Mohamad</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amira</t>
+          <t>Zinab</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>27-08-1980</t>
+          <t>15.02.1983</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Qanat Alsuez</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Schwerte</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Refaaeeh</t>
+          <t>Khalil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Amira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>25-01-1977</t>
+          <t>27-08-1980</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Qanat Alsuez</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Merdjani</t>
+          <t>Refaaeeh</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hamzi</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21-10-1969</t>
+          <t>25-01-1977</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -800,45 +800,92 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Merdjani</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hamzi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>21-10-1969</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Skopje</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Diallo</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Mamadou Oury</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>01.01.1988</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Conakry</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Gelsenkirchen</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ebrahim</t>
+          <t>Smajic</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Taher Sabry Elsayed Gomaa</t>
+          <t>Adnan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31.08.1985</t>
+          <t>26.03.1989</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Aruna</t>
+          <t>Ebrahim</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jimoh</t>
+          <t>Taher Sabry Elsayed Gomaa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24.03.1980</t>
+          <t>31.08.1985</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kaduna</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chahin</t>
+          <t>Aruna</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Manal Jaber</t>
+          <t>Jimoh</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>270189</t>
+          <t>24.03.1980</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Varde</t>
+          <t>Kaduna</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,12 +590,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mitreski</t>
+          <t>Chahin</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Slavko</t>
+          <t>Manal Jaber</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20.07.1988</t>
+          <t>270189</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bitola</t>
+          <t>Varde</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,17 +637,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Hamm</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Mitreski</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Zinab</t>
+          <t>Slavko</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15.02.1983</t>
+          <t>20.07.1988</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Bitola</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schwerte</t>
+          <t>Hamm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Khalil</t>
+          <t>Mohamad</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amira</t>
+          <t>Zinab</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>27-08-1980</t>
+          <t>15.02.1983</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Qanat Alsuez</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Schwerte</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Refaaeeh</t>
+          <t>Khalil</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Amira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>25-01-1977</t>
+          <t>27-08-1980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Qanat Alsuez</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -800,22 +800,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Merdjani</t>
+          <t>Refaaeeh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hamzi</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21-10-1969</t>
+          <t>25-01-1977</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -847,45 +847,92 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Merdjani</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hamzi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21-10-1969</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Skopje</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Diallo</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Mamadou Oury</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>01.01.1988</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Conakry</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Gelsenkirchen</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Smajic</t>
+          <t>Obeid Al Hamad</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adnan</t>
+          <t>Hossam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>26.03.1989</t>
+          <t>30. 01.2003</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>DEIR - EZ- Zor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Remscheid</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ebrahim</t>
+          <t>Smajic</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Taher Sabry Elsayed Gomaa</t>
+          <t>Adnan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>31.08.1985</t>
+          <t>26.03.1989</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aruna</t>
+          <t>Ebrahim</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jimoh</t>
+          <t>Taher Sabry Elsayed Gomaa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>24.03.1980</t>
+          <t>31.08.1985</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kaduna</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chahin</t>
+          <t>Aruna</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Manal Jaber</t>
+          <t>Jimoh</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>270189</t>
+          <t>24.03.1980</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Varde</t>
+          <t>Kaduna</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mitreski</t>
+          <t>Chahin</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Slavko</t>
+          <t>Manal Jaber</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20.07.1988</t>
+          <t>270189</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bitola</t>
+          <t>Varde</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hamm</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Mitreski</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Zinab</t>
+          <t>Slavko</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15.02.1983</t>
+          <t>20.07.1988</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Bitola</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Schwerte</t>
+          <t>Hamm</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Khalil</t>
+          <t>Mohamad</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Amira</t>
+          <t>Zinab</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>27-08-1980</t>
+          <t>15.02.1983</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Qanat Alsuez</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Schwerte</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -800,22 +800,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Refaaeeh</t>
+          <t>Khalil</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Amira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>25-01-1977</t>
+          <t>27-08-1980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Qanat Alsuez</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -847,22 +847,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Merdjani</t>
+          <t>Refaaeeh</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hamzi</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21-10-1969</t>
+          <t>25-01-1977</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -877,12 +877,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -894,45 +894,92 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Merdjani</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hamzi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>21-10-1969</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Skopje</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Diallo</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Mamadou Oury</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>01.01.1988</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Conakry</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Gelsenkirchen</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Obeid Al Hamad</t>
+          <t>Jamal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hossam</t>
+          <t>Rahaf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30. 01.2003</t>
+          <t>26.02.2002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DEIR - EZ- Zor</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Remscheid</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Smajic</t>
+          <t>Obeid Al Hamad</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adnan</t>
+          <t>Hossam</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>26.03.1989</t>
+          <t>30. 01.2003</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>DEIR - EZ- Zor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Remscheid</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ebrahim</t>
+          <t>Smajic</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Taher Sabry Elsayed Gomaa</t>
+          <t>Adnan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>31.08.1985</t>
+          <t>26.03.1989</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aruna</t>
+          <t>Ebrahim</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jimoh</t>
+          <t>Taher Sabry Elsayed Gomaa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>24.03.1980</t>
+          <t>31.08.1985</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kaduna</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chahin</t>
+          <t>Aruna</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Manal Jaber</t>
+          <t>Jimoh</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>270189</t>
+          <t>24.03.1980</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Varde</t>
+          <t>Kaduna</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mitreski</t>
+          <t>Chahin</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Slavko</t>
+          <t>Manal Jaber</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20.07.1988</t>
+          <t>270189</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bitola</t>
+          <t>Varde</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hamm</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Mitreski</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Zinab</t>
+          <t>Slavko</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15.02.1983</t>
+          <t>20.07.1988</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Bitola</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -778,17 +778,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schwerte</t>
+          <t>Hamm</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -800,22 +800,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Khalil</t>
+          <t>Mohamad</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Amira</t>
+          <t>Zinab</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>27-08-1980</t>
+          <t>15.02.1983</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Qanat Alsuez</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Schwerte</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -847,22 +847,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Refaaeeh</t>
+          <t>Khalil</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Amira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>25-01-1977</t>
+          <t>27-08-1980</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Qanat Alsuez</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -894,22 +894,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Merdjani</t>
+          <t>Refaaeeh</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hamzi</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21-10-1969</t>
+          <t>25-01-1977</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -924,12 +924,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -941,45 +941,92 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Merdjani</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hamzi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21-10-1969</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Skopje</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Diallo</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Mamadou Oury</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>01.01.1988</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Conakry</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Gelsenkirchen</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jamal</t>
+          <t>Koçak</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rahaf</t>
+          <t>Mehmet Emin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>26.02.2002</t>
+          <t>02.121988</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Erzurum/Tekman</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Obeid Al Hamad</t>
+          <t>Jamal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hossam</t>
+          <t>Rahaf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30. 01.2003</t>
+          <t>26.02.2002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DEIR - EZ- Zor</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Remscheid</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Smajic</t>
+          <t>Obeid Al Hamad</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adnan</t>
+          <t>Hossam</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26.03.1989</t>
+          <t>30. 01.2003</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>DEIR - EZ- Zor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Remscheid</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ebrahim</t>
+          <t>Smajic</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Taher Sabry Elsayed Gomaa</t>
+          <t>Adnan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>31.08.1985</t>
+          <t>26.03.1989</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Aruna</t>
+          <t>Ebrahim</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jimoh</t>
+          <t>Taher Sabry Elsayed Gomaa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24.03.1980</t>
+          <t>31.08.1985</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kaduna</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chahin</t>
+          <t>Aruna</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Manal Jaber</t>
+          <t>Jimoh</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>270189</t>
+          <t>24.03.1980</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Varde</t>
+          <t>Kaduna</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -731,12 +731,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mitreski</t>
+          <t>Chahin</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Slavko</t>
+          <t>Manal Jaber</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20.07.1988</t>
+          <t>270189</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bitola</t>
+          <t>Varde</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -778,17 +778,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hamm</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -800,22 +800,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Mitreski</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Zinab</t>
+          <t>Slavko</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15.02.1983</t>
+          <t>20.07.1988</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Bitola</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schwerte</t>
+          <t>Hamm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -847,22 +847,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Khalil</t>
+          <t>Mohamad</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Amira</t>
+          <t>Zinab</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>27-08-1980</t>
+          <t>15.02.1983</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Qanat Alsuez</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Schwerte</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -894,22 +894,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Refaaeeh</t>
+          <t>Khalil</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Amira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>25-01-1977</t>
+          <t>27-08-1980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Qanat Alsuez</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -941,22 +941,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Merdjani</t>
+          <t>Refaaeeh</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hamzi</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21-10-1969</t>
+          <t>25-01-1977</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -988,45 +988,92 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Merdjani</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hamzi</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>21-10-1969</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Skopje</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Diallo</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Mamadou Oury</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>01.01.1988</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Conakry</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Gelsenkirchen</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Koçak</t>
+          <t>Thullah</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mehmet Emin</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>02.121988</t>
+          <t>11.11.1992</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Erzurum/Tekman</t>
+          <t>Makeni</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Duisburg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jamal</t>
+          <t>Koçak</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rahaf</t>
+          <t>Mehmet Emin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>26.02.2002</t>
+          <t>02.121988</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Erzurum/Tekman</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Obeid Al Hamad</t>
+          <t>Jamal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hossam</t>
+          <t>Rahaf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30. 01.2003</t>
+          <t>26.02.2002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DEIR - EZ- Zor</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Remscheid</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Smajic</t>
+          <t>Obeid Al Hamad</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Adnan</t>
+          <t>Hossam</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>26.03.1989</t>
+          <t>30. 01.2003</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>DEIR - EZ- Zor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Remscheid</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ebrahim</t>
+          <t>Smajic</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Taher Sabry Elsayed Gomaa</t>
+          <t>Adnan</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31.08.1985</t>
+          <t>26.03.1989</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Aruna</t>
+          <t>Ebrahim</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jimoh</t>
+          <t>Taher Sabry Elsayed Gomaa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24.03.1980</t>
+          <t>31.08.1985</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kaduna</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chahin</t>
+          <t>Aruna</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Manal Jaber</t>
+          <t>Jimoh</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>270189</t>
+          <t>24.03.1980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Varde</t>
+          <t>Kaduna</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -800,22 +800,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mitreski</t>
+          <t>Chahin</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Slavko</t>
+          <t>Manal Jaber</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20.07.1988</t>
+          <t>270189</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bitola</t>
+          <t>Varde</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Hamm</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -847,22 +847,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Mitreski</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Zinab</t>
+          <t>Slavko</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15.02.1983</t>
+          <t>20.07.1988</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Bitola</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -872,17 +872,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Schwerte</t>
+          <t>Hamm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -894,22 +894,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Khalil</t>
+          <t>Mohamad</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Amira</t>
+          <t>Zinab</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>27-08-1980</t>
+          <t>15.02.1983</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Qanat Alsuez</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Schwerte</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -941,22 +941,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Refaaeeh</t>
+          <t>Khalil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Amira</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>25-01-1977</t>
+          <t>27-08-1980</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Qanat Alsuez</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -988,22 +988,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Merdjani</t>
+          <t>Refaaeeh</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hamzi</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21-10-1969</t>
+          <t>25-01-1977</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1018,12 +1018,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1035,45 +1035,92 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Merdjani</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hamzi</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>21-10-1969</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Skopje</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Diallo</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Mamadou Oury</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>01.01.1988</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Conakry</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Gelsenkirchen</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Thullah</t>
+          <t>Dinh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Son dung</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11.11.1992</t>
+          <t>25-10-1988</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Makeni</t>
+          <t>Nghe an</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Koçak</t>
+          <t>Thullah</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mehmet Emin</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02.121988</t>
+          <t>11.11.1992</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Erzurum/Tekman</t>
+          <t>Makeni</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Duisburg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jamal</t>
+          <t>Koçak</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rahaf</t>
+          <t>Mehmet Emin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26.02.2002</t>
+          <t>02.121988</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Erzurum/Tekman</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,17 +590,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Obeid Al Hamad</t>
+          <t>Jamal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hossam</t>
+          <t>Rahaf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>30. 01.2003</t>
+          <t>26.02.2002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DEIR - EZ- Zor</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Remscheid</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Smajic</t>
+          <t>Obeid Al Hamad</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Adnan</t>
+          <t>Hossam</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>26.03.1989</t>
+          <t>30. 01.2003</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>DEIR - EZ- Zor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Remscheid</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ebrahim</t>
+          <t>Smajic</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Taher Sabry Elsayed Gomaa</t>
+          <t>Adnan</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>31.08.1985</t>
+          <t>26.03.1989</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Aruna</t>
+          <t>Ebrahim</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jimoh</t>
+          <t>Taher Sabry Elsayed Gomaa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>24.03.1980</t>
+          <t>31.08.1985</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kaduna</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -800,22 +800,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chahin</t>
+          <t>Aruna</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Manal Jaber</t>
+          <t>Jimoh</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>270189</t>
+          <t>24.03.1980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Varde</t>
+          <t>Kaduna</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -847,22 +847,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mitreski</t>
+          <t>Chahin</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Slavko</t>
+          <t>Manal Jaber</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20.07.1988</t>
+          <t>270189</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bitola</t>
+          <t>Varde</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -872,17 +872,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Hamm</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -894,22 +894,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Mitreski</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Zinab</t>
+          <t>Slavko</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15.02.1983</t>
+          <t>20.07.1988</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Bitola</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -919,17 +919,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schwerte</t>
+          <t>Hamm</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -941,22 +941,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Khalil</t>
+          <t>Mohamad</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Amira</t>
+          <t>Zinab</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>27-08-1980</t>
+          <t>15.02.1983</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Qanat Alsuez</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Schwerte</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -988,22 +988,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Refaaeeh</t>
+          <t>Khalil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Amira</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>25-01-1977</t>
+          <t>27-08-1980</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Qanat Alsuez</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1035,22 +1035,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Merdjani</t>
+          <t>Refaaeeh</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hamzi</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21-10-1969</t>
+          <t>25-01-1977</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1082,45 +1082,92 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Merdjani</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hamzi</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>21-10-1969</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Skopje</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Diallo</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Mamadou Oury</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>01.01.1988</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Conakry</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Gelsenkirchen</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dinh</t>
+          <t>Mahmoud</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Son dung</t>
+          <t>Hajar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25-10-1988</t>
+          <t>01.01.1997</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nghe an</t>
+          <t>Kamishli</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Duisburg</t>
+          <t>Bielefeld</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Thullah</t>
+          <t>Dinh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Son dung</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11.11.1992</t>
+          <t>25-10-1988</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Makeni</t>
+          <t>Nghe an</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Koçak</t>
+          <t>Thullah</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mehmet Emin</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>02.121988</t>
+          <t>11.11.1992</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Erzurum/Tekman</t>
+          <t>Makeni</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Duisburg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jamal</t>
+          <t>Koçak</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rahaf</t>
+          <t>Mehmet Emin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>26.02.2002</t>
+          <t>02.121988</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Erzurum/Tekman</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,17 +637,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Obeid Al Hamad</t>
+          <t>Jamal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hossam</t>
+          <t>Rahaf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30. 01.2003</t>
+          <t>26.02.2002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DEIR - EZ- Zor</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Remscheid</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Smajic</t>
+          <t>Obeid Al Hamad</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Adnan</t>
+          <t>Hossam</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>26.03.1989</t>
+          <t>30. 01.2003</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>DEIR - EZ- Zor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Remscheid</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ebrahim</t>
+          <t>Smajic</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Taher Sabry Elsayed Gomaa</t>
+          <t>Adnan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31.08.1985</t>
+          <t>26.03.1989</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -800,22 +800,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Aruna</t>
+          <t>Ebrahim</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jimoh</t>
+          <t>Taher Sabry Elsayed Gomaa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>24.03.1980</t>
+          <t>31.08.1985</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kaduna</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -847,22 +847,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chahin</t>
+          <t>Aruna</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Manal Jaber</t>
+          <t>Jimoh</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>270189</t>
+          <t>24.03.1980</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Varde</t>
+          <t>Kaduna</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -894,22 +894,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mitreski</t>
+          <t>Chahin</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Slavko</t>
+          <t>Manal Jaber</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20.07.1988</t>
+          <t>270189</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bitola</t>
+          <t>Varde</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -919,17 +919,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hamm</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -941,22 +941,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Mitreski</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Zinab</t>
+          <t>Slavko</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15.02.1983</t>
+          <t>20.07.1988</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Bitola</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -966,17 +966,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Schwerte</t>
+          <t>Hamm</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -988,22 +988,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Khalil</t>
+          <t>Mohamad</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Amira</t>
+          <t>Zinab</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>27-08-1980</t>
+          <t>15.02.1983</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Qanat Alsuez</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Schwerte</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1035,22 +1035,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Refaaeeh</t>
+          <t>Khalil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Amira</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>25-01-1977</t>
+          <t>27-08-1980</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Qanat Alsuez</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1082,22 +1082,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Merdjani</t>
+          <t>Refaaeeh</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hamzi</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>21-10-1969</t>
+          <t>25-01-1977</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1129,45 +1129,92 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Merdjani</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hamzi</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21-10-1969</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Skopje</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Diallo</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Mamadou Oury</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>01.01.1988</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Conakry</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Gelsenkirchen</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12406.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mahmoud</t>
+          <t>Obeng</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hajar</t>
+          <t>Florence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01.01.1997</t>
+          <t>31.05.1981</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kamishli</t>
+          <t>Aflao</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Bielefeld</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dinh</t>
+          <t>Mahmoud</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Son dung</t>
+          <t>Hajar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>25-10-1988</t>
+          <t>01.01.1997</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nghe an</t>
+          <t>Kamishli</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Duisburg</t>
+          <t>Bielefeld</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Thullah</t>
+          <t>Dinh</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Son dung</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11.11.1992</t>
+          <t>25-10-1988</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Makeni</t>
+          <t>Nghe an</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Koçak</t>
+          <t>Thullah</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mehmet Emin</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>02.121988</t>
+          <t>11.11.1992</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Erzurum/Tekman</t>
+          <t>Makeni</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Duisburg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jamal</t>
+          <t>Koçak</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rahaf</t>
+          <t>Mehmet Emin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>26.02.2002</t>
+          <t>02.121988</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Erzurum/Tekman</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Obeid Al Hamad</t>
+          <t>Jamal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hossam</t>
+          <t>Rahaf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>30. 01.2003</t>
+          <t>26.02.2002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DEIR - EZ- Zor</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Remscheid</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Smajic</t>
+          <t>Obeid Al Hamad</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Adnan</t>
+          <t>Hossam</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>26.03.1989</t>
+          <t>30. 01.2003</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sarajevo</t>
+          <t>DEIR - EZ- Zor</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Remscheid</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -800,22 +800,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ebrahim</t>
+          <t>Smajic</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Taher Sabry Elsayed Gomaa</t>
+          <t>Adnan</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>31.08.1985</t>
+          <t>26.03.1989</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Sarajevo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -847,22 +847,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Aruna</t>
+          <t>Ebrahim</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jimoh</t>
+          <t>Taher Sabry Elsayed Gomaa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>24.03.1980</t>
+          <t>31.08.1985</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kaduna</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -894,22 +894,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chahin</t>
+          <t>Aruna</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Manal Jaber</t>
+          <t>Jimoh</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>270189</t>
+          <t>24.03.1980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Varde</t>
+          <t>Kaduna</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -919,12 +919,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -941,22 +941,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mitreski</t>
+          <t>Chahin</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Slavko</t>
+          <t>Manal Jaber</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20.07.1988</t>
+          <t>270189</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bitola</t>
+          <t>Varde</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -966,17 +966,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Hamm</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -988,22 +988,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Mitreski</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Zinab</t>
+          <t>Slavko</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15.02.1983</t>
+          <t>20.07.1988</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Bitola</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1013,17 +1013,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Schwerte</t>
+          <t>Hamm</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1035,22 +1035,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Khalil</t>
+          <t>Mohamad</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Amira</t>
+          <t>Zinab</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>27-08-1980</t>
+          <t>15.02.1983</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Qanat Alsuez</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Schwerte</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1082,22 +1082,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Refaaeeh</t>
+          <t>Khalil</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Amira</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>25-01-1977</t>
+          <t>27-08-1980</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Qanat Alsuez</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1129,22 +1129,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Merdjani</t>
+          <t>Refaaeeh</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hamzi</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21-10-1969</t>
+          <t>25-01-1977</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1159,12 +1159,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1176,45 +1176,92 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Merdjani</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hamzi</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>21-10-1969</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Skopje</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Diallo</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Mamadou Oury</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>01.01.1988</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Conakry</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Gelsenkirchen</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
